--- a/selection_parameters_based_onheatmap.xlsx
+++ b/selection_parameters_based_onheatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nsq024vs\u8\aczd087\MyDocs\GLCM_svm_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F7BF32-2093-4A5C-9A73-6B748EED8BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC98D96-BFB5-44D9-9949-EBCCB06CC47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11535" windowHeight="9075" xr2:uid="{29D23832-8C1A-48D0-ADAE-925339643B05}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Background_to_Liver</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank selection </t>
   </si>
 </sst>
 </file>
@@ -136,12 +139,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,17 +152,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,208 +493,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D8066-6BDF-44A1-9A64-53887857C5A0}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="A3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D10" s="4">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D12" s="4">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E12">
-    <sortCondition descending="1" ref="D3:D12"/>
+  <sortState ref="A3:E9">
+    <sortCondition descending="1" ref="D3:D9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
